--- a/ExcelRead/TASK.xlsx
+++ b/ExcelRead/TASK.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Amazon products - AC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K18"/>
+  <oleSize ref="A1:I18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -102,10 +102,7 @@
     <t>JOHN</t>
   </si>
   <si>
-    <t>VIJAY</t>
-  </si>
-  <si>
-    <t>KUMAR</t>
+    <t>keyan</t>
   </si>
 </sst>
 </file>
@@ -454,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -468,7 +465,7 @@
     <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -502,24 +499,12 @@
         <v>1234567</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8934659889</v>
-      </c>
-      <c r="D3" s="2">
-        <v>34159</v>
-      </c>
-      <c r="E3" s="1">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -536,6 +521,7 @@
         <v>1234</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
